--- a/analysis_data/CF/CF_Data_2021_4analysis_garden_transformed.xlsx
+++ b/analysis_data/CF/CF_Data_2021_4analysis_garden_transformed.xlsx
@@ -605,7 +605,7 @@
         <v>5.67250338076321</v>
       </c>
       <c r="N2" t="n">
-        <v>127.578795377167</v>
+        <v>226.156313238515</v>
       </c>
       <c r="O2" t="n">
         <v>0.00356438891346012</v>
@@ -694,7 +694,7 @@
         <v>5.60603663789034</v>
       </c>
       <c r="N3" t="n">
-        <v>122.382477544661</v>
+        <v>218.315617912269</v>
       </c>
       <c r="O3" t="n">
         <v>0.00407846153846154</v>
@@ -783,7 +783,7 @@
         <v>5.95280540366182</v>
       </c>
       <c r="N4" t="n">
-        <v>151.2385985994</v>
+        <v>261.450304537108</v>
       </c>
       <c r="O4" t="n">
         <v>0.00424054033294229</v>
@@ -872,7 +872,7 @@
         <v>4.84563824186853</v>
       </c>
       <c r="N5" t="n">
-        <v>73.1491701068161</v>
+        <v>141.852452400398</v>
       </c>
       <c r="O5" t="n">
         <v>0.00469849537037037</v>
@@ -961,7 +961,7 @@
         <v>1.23698947488899</v>
       </c>
       <c r="N6" t="n">
-        <v>0.316509566767837</v>
+        <v>4.54955027088155</v>
       </c>
       <c r="O6" t="n">
         <v>0.00568498168498168</v>
@@ -1050,7 +1050,7 @@
         <v>4.88195850698752</v>
       </c>
       <c r="N7" t="n">
-        <v>75.105000967393</v>
+        <v>144.985469907393</v>
       </c>
       <c r="O7" t="n">
         <v>0.00336251107764456</v>
@@ -1139,7 +1139,7 @@
         <v>3.98937476873243</v>
       </c>
       <c r="N8" t="n">
-        <v>36.7534685202932</v>
+        <v>81.1075307932973</v>
       </c>
       <c r="O8" t="n">
         <v>0.003925</v>
@@ -1228,7 +1228,7 @@
         <v>4.38435303235009</v>
       </c>
       <c r="N9" t="n">
-        <v>51.353355266025</v>
+        <v>106.141814220548</v>
       </c>
       <c r="O9" t="n">
         <v>0.00228846153846154</v>
@@ -1317,7 +1317,7 @@
         <v>5.7046391077275</v>
       </c>
       <c r="N10" t="n">
-        <v>130.14681541938</v>
+        <v>230.018469039734</v>
       </c>
       <c r="O10" t="n">
         <v>0.00392952969505881</v>
@@ -1406,7 +1406,7 @@
         <v>5.97162311319155</v>
       </c>
       <c r="N11" t="n">
-        <v>152.931355330938</v>
+        <v>263.952323951971</v>
       </c>
       <c r="O11" t="n">
         <v>0.00409439606217263</v>
@@ -1495,7 +1495,7 @@
         <v>5.15040242555611</v>
       </c>
       <c r="N12" t="n">
-        <v>90.7362029610905</v>
+        <v>169.695888550533</v>
       </c>
       <c r="O12" t="n">
         <v>0.00446686401833461</v>
@@ -1584,7 +1584,7 @@
         <v>6.12371163120461</v>
       </c>
       <c r="N13" t="n">
-        <v>167.1134951048</v>
+        <v>284.806983773441</v>
       </c>
       <c r="O13" t="n">
         <v>0.00477392584352985</v>
@@ -1673,7 +1673,7 @@
         <v>6.44479304329754</v>
       </c>
       <c r="N14" t="n">
-        <v>200.104472193932</v>
+        <v>332.66558147887</v>
       </c>
       <c r="O14" t="n">
         <v>0.00409512471655329</v>
